--- a/pituffik_geopackage_content_description.xlsx
+++ b/pituffik_geopackage_content_description.xlsx
@@ -8,35 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akersp\Desktop\Manuscripts\Pituffik Water Iso Manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EA1D25-321F-4375-A575-9016F9013BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FADDECA-A2D7-4C1E-A4AA-9768E5585C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61B884D8-D5C0-4C3E-B03C-ACB2EACDB7B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="thule_contour_ice" sheetId="4" r:id="rId2"/>
-    <sheet name="thule_contour_tundra" sheetId="5" r:id="rId3"/>
-    <sheet name="thule_contours_200m" sheetId="6" r:id="rId4"/>
-    <sheet name="thule_frequent_sample_sites" sheetId="7" r:id="rId5"/>
-    <sheet name="thule_ice_mask" sheetId="8" r:id="rId6"/>
-    <sheet name="thule_ice_outcrop" sheetId="9" r:id="rId7"/>
-    <sheet name="thule_labeled_sites" sheetId="3" r:id="rId8"/>
-    <sheet name="thule_lakepool_iso_2018vs2019_p" sheetId="2" r:id="rId9"/>
-    <sheet name="thule_lakes" sheetId="11" r:id="rId10"/>
-    <sheet name="thule_lakesheds" sheetId="10" r:id="rId11"/>
-    <sheet name="thule_land_poly" sheetId="12" r:id="rId12"/>
-    <sheet name="thule_mainbase_polygon" sheetId="13" r:id="rId13"/>
-    <sheet name="thule_roads" sheetId="14" r:id="rId14"/>
-    <sheet name="thule_streams" sheetId="15" r:id="rId15"/>
-    <sheet name="thule_tundra" sheetId="16" r:id="rId16"/>
-    <sheet name="thule_tuto_icemask_2019" sheetId="23" r:id="rId17"/>
-    <sheet name="thule_tutodome" sheetId="17" r:id="rId18"/>
-    <sheet name="thule_unique_sample_sites" sheetId="18" r:id="rId19"/>
-    <sheet name="thule_water_iso_periodcompare_p" sheetId="19" r:id="rId20"/>
-    <sheet name="thule_water_iso_periodcompare_s" sheetId="20" r:id="rId21"/>
-    <sheet name="thule_watersheds_10-150km2" sheetId="21" r:id="rId22"/>
-    <sheet name="thule_watersheds_borders_10-150" sheetId="22" r:id="rId23"/>
-    <sheet name="thule_watersheds_main" sheetId="25" r:id="rId24"/>
+    <sheet name="Citations" sheetId="26" r:id="rId2"/>
+    <sheet name="thule_contour_ice" sheetId="4" r:id="rId3"/>
+    <sheet name="thule_contour_tundra" sheetId="5" r:id="rId4"/>
+    <sheet name="thule_contours_200m" sheetId="6" r:id="rId5"/>
+    <sheet name="thule_frequent_sample_sites" sheetId="7" r:id="rId6"/>
+    <sheet name="thule_ice_mask" sheetId="8" r:id="rId7"/>
+    <sheet name="thule_ice_outcrop" sheetId="9" r:id="rId8"/>
+    <sheet name="thule_labeled_sites" sheetId="3" r:id="rId9"/>
+    <sheet name="thule_lakepool_iso_2018vs2019_p" sheetId="2" r:id="rId10"/>
+    <sheet name="thule_lakes" sheetId="11" r:id="rId11"/>
+    <sheet name="thule_lakesheds" sheetId="10" r:id="rId12"/>
+    <sheet name="thule_land_poly" sheetId="12" r:id="rId13"/>
+    <sheet name="thule_mainbase_polygon" sheetId="13" r:id="rId14"/>
+    <sheet name="thule_roads" sheetId="14" r:id="rId15"/>
+    <sheet name="thule_streams" sheetId="15" r:id="rId16"/>
+    <sheet name="thule_tundra" sheetId="16" r:id="rId17"/>
+    <sheet name="thule_tuto_icemask_2019" sheetId="23" r:id="rId18"/>
+    <sheet name="thule_tutodome" sheetId="17" r:id="rId19"/>
+    <sheet name="thule_unique_sample_sites" sheetId="18" r:id="rId20"/>
+    <sheet name="thule_water_iso_periodcompare_p" sheetId="19" r:id="rId21"/>
+    <sheet name="thule_water_iso_periodcompare_s" sheetId="20" r:id="rId22"/>
+    <sheet name="thule_watersheds_10-150km2" sheetId="21" r:id="rId23"/>
+    <sheet name="thule_watersheds_borders_10-150" sheetId="22" r:id="rId24"/>
+    <sheet name="thule_watersheds_main" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="214">
   <si>
     <t>filename</t>
   </si>
@@ -677,16 +678,46 @@
   </si>
   <si>
     <t>thule_labeled_sites</t>
+  </si>
+  <si>
+    <t>projection</t>
+  </si>
+  <si>
+    <t>EPSG:3413</t>
+  </si>
+  <si>
+    <t>Shorthand</t>
+  </si>
+  <si>
+    <t>Full Citation</t>
+  </si>
+  <si>
+    <t>Copernicus. (2019). Sentinel-2 data, Sentinel Hub. Retrieved August 15, 2019, from https://www.sentinel-hub.com/</t>
+  </si>
+  <si>
+    <t>Howat, I. M. (2019). MEaSUREs Greenland Ice Mapping Project (GIMP) Land Ice and Ocean Classification Mask, Version 1, 90 m x 90 m. NASA NSIDC Distributed Active Archive Center. https://doi.org/10.5067/B8X58MQBFUPA</t>
+  </si>
+  <si>
+    <t>Korsgaard, N. J., Nuth, C., Khan, S. A., Kjeldsen, K. K., Bjørk, A. A., Schomacker, A., &amp; Kjær, K. H. (2016). Digital elevation model and orthophotographs of Greenland based on aerial photographs from 1978–1987. Scientific Data, 3(1), 160032. https://doi.org/10.1038/sdata.2016.32</t>
+  </si>
+  <si>
+    <t>Porter, C., Morin, P., Howat, I., Noh, M. J., Bates, B., Peterman, K., et al. (2019). ArcticDEM, V3.0, Release 7. https://doi.org/10.7910/DVN/OHHUKH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1029,20 +1060,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FB69C4-5E58-43FA-A16B-3B7A6C812671}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="139.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,19 +1088,22 @@
         <v>200</v>
       </c>
       <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -1082,19 +1117,22 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1108,19 +1146,22 @@
         <v>201</v>
       </c>
       <c r="E3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1134,19 +1175,22 @@
         <v>201</v>
       </c>
       <c r="E4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -1160,19 +1204,22 @@
         <v>201</v>
       </c>
       <c r="E5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1186,19 +1233,22 @@
         <v>202</v>
       </c>
       <c r="E6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1212,19 +1262,22 @@
         <v>202</v>
       </c>
       <c r="E7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1238,19 +1291,22 @@
         <v>202</v>
       </c>
       <c r="E8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -1264,13 +1320,16 @@
         <v>202</v>
       </c>
       <c r="E9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1284,19 +1343,22 @@
         <v>202</v>
       </c>
       <c r="E10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>37</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -1310,19 +1372,22 @@
         <v>202</v>
       </c>
       <c r="E11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>68</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -1336,13 +1401,16 @@
         <v>202</v>
       </c>
       <c r="E12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" t="s">
         <v>59</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -1356,13 +1424,16 @@
         <v>202</v>
       </c>
       <c r="E13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" t="s">
         <v>59</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1376,19 +1447,22 @@
         <v>202</v>
       </c>
       <c r="E14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>46</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
@@ -1402,19 +1476,22 @@
         <v>202</v>
       </c>
       <c r="E15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>74</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1428,19 +1505,22 @@
         <v>202</v>
       </c>
       <c r="E16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>10</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1454,19 +1534,22 @@
         <v>202</v>
       </c>
       <c r="E17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" t="s">
         <v>44</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>32</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1480,19 +1563,22 @@
         <v>202</v>
       </c>
       <c r="E18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" t="s">
         <v>45</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>46</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1506,19 +1592,22 @@
         <v>202</v>
       </c>
       <c r="E19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>27</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -1532,19 +1621,22 @@
         <v>202</v>
       </c>
       <c r="E20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" t="s">
         <v>81</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>82</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>83</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>204</v>
       </c>
@@ -1558,19 +1650,22 @@
         <v>202</v>
       </c>
       <c r="E21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>32</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -1584,19 +1679,22 @@
         <v>202</v>
       </c>
       <c r="E22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" t="s">
         <v>35</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>36</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>77</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1610,13 +1708,16 @@
         <v>202</v>
       </c>
       <c r="E23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" t="s">
         <v>59</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -1630,13 +1731,16 @@
         <v>202</v>
       </c>
       <c r="E24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" t="s">
         <v>59</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1650,13 +1754,16 @@
         <v>202</v>
       </c>
       <c r="E25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" t="s">
         <v>59</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1670,19 +1777,22 @@
         <v>202</v>
       </c>
       <c r="E26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" t="s">
         <v>8</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>9</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>13</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1696,19 +1806,22 @@
         <v>202</v>
       </c>
       <c r="E27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" t="s">
         <v>8</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>9</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>13</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1722,28 +1835,243 @@
         <v>202</v>
       </c>
       <c r="E28" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" t="s">
         <v>8</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>9</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>13</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I28">
     <sortCondition ref="B2:B28"/>
     <sortCondition ref="A2:A28"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B530EF6B-E36B-423E-BD66-B3B8E955CC64}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E4C509-EBF9-4047-92EB-D9CFBCE612D9}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1893,7 +2221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA66B70-495C-4430-9544-6EE400765264}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1984,7 +2312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA993836-D67A-455A-B14F-B34BFB3BF36B}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2028,7 +2356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B93C6B-4ECE-48B9-A1B1-B0B37EE1332E}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2072,7 +2400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49B5002-FBB0-45FB-B9E2-EC75A76AD525}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2128,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456B7FDF-2648-4814-B89F-C094D85D02B7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2189,7 +2517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AA63D5-0031-4471-BDFE-2B6E3195C76E}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2233,7 +2561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D412F1C2-5877-4949-B0BE-8CCA2ACB6287}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2269,7 +2597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DEB31C-516F-46D8-A384-71BE98C740B4}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2313,7 +2641,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1706C710-A2B0-4208-A9B4-5AAF673DAC2C}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5458D302-B4A8-4D2F-B971-D9C3BBA2D8DB}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -2489,7 +2875,443 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAF0729-17B7-4414-97D5-047F89707DD2}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5279550-4F2C-402E-88BA-532F5C6DCEDF}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491CC186-8719-4374-B935-D915C6194DB2}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB9601B-27DE-44A3-B5AA-693F39BFA3B2}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AA7673-0EFE-4473-AB62-A9B7AF8267E3}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA9935C-837D-4E33-8A8A-27E132D94E26}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2533,443 +3355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAF0729-17B7-4414-97D5-047F89707DD2}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5279550-4F2C-402E-88BA-532F5C6DCEDF}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491CC186-8719-4374-B935-D915C6194DB2}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB9601B-27DE-44A3-B5AA-693F39BFA3B2}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AA7673-0EFE-4473-AB62-A9B7AF8267E3}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F2EB3A-B97F-421C-970F-459AA4CE38BB}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3013,7 +3399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8FD6C9-CB7A-41D6-B7A2-D35AD4802ABC}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3058,7 +3444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BC1895-2710-4316-9029-C762D3D15DD5}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3126,7 +3512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4F49D9-A4F7-4381-A8E8-EE18DBC0E288}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3170,7 +3556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF9B4E7-9F19-4404-878C-FEFD50495197}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3214,7 +3600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA7258F-6B6D-49C2-A76B-238D8DDE89D4}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3279,215 +3665,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B530EF6B-E36B-423E-BD66-B3B8E955CC64}">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/pituffik_geopackage_content_description.xlsx
+++ b/pituffik_geopackage_content_description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akersp\Desktop\Manuscripts\Pituffik Water Iso Manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akersp\Desktop\Mapping\Greenland\Thule Mapping 2023\pituffik_geopackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FADDECA-A2D7-4C1E-A4AA-9768E5585C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B2B6FB-AF62-4B9E-8609-813DAD5FC479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61B884D8-D5C0-4C3E-B03C-ACB2EACDB7B9}"/>
+    <workbookView xWindow="-26910" yWindow="795" windowWidth="22320" windowHeight="14325" xr2:uid="{61B884D8-D5C0-4C3E-B03C-ACB2EACDB7B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <sheet name="thule_watersheds_borders_10-150" sheetId="22" r:id="rId24"/>
     <sheet name="thule_watersheds_main" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="240">
   <si>
     <t>filename</t>
   </si>
@@ -702,6 +702,84 @@
   </si>
   <si>
     <t>Porter, C., Morin, P., Howat, I., Noh, M. J., Bates, B., Peterman, K., et al. (2019). ArcticDEM, V3.0, Release 7. https://doi.org/10.7910/DVN/OHHUKH</t>
+  </si>
+  <si>
+    <t>EI_d18O_t2</t>
+  </si>
+  <si>
+    <t>EI_d2H_t2</t>
+  </si>
+  <si>
+    <t>EI_dxs_t2</t>
+  </si>
+  <si>
+    <t>The E/I ratio modeled from d18O in period 2</t>
+  </si>
+  <si>
+    <t>The E/I ratio modeled from d2H in period 2</t>
+  </si>
+  <si>
+    <t>The E/I ratio modeled from dxs in period 2</t>
+  </si>
+  <si>
+    <t>EI_d18O_t3</t>
+  </si>
+  <si>
+    <t>EI_d2H_t3</t>
+  </si>
+  <si>
+    <t>EI_dxs_t3</t>
+  </si>
+  <si>
+    <t>The E/I ratio modeled from d18O in period 3</t>
+  </si>
+  <si>
+    <t>The E/I ratio modeled from d2H in period 3</t>
+  </si>
+  <si>
+    <t>The E/I ratio modeled from dxs in period 3</t>
+  </si>
+  <si>
+    <t>laketype_num</t>
+  </si>
+  <si>
+    <t>surf_area</t>
+  </si>
+  <si>
+    <t>basin_name</t>
+  </si>
+  <si>
+    <t>lakeshed</t>
+  </si>
+  <si>
+    <t>d18O_infl</t>
+  </si>
+  <si>
+    <t>Inferred inflow source water d18O</t>
+  </si>
+  <si>
+    <t>d2H_infl</t>
+  </si>
+  <si>
+    <t>Inferred inflow source water d2H</t>
+  </si>
+  <si>
+    <t>dxs_infl</t>
+  </si>
+  <si>
+    <t>Inferred inflow source water dxs</t>
+  </si>
+  <si>
+    <t>frze_frac</t>
+  </si>
+  <si>
+    <t>thaw_frac</t>
+  </si>
+  <si>
+    <t>Fraction of inflow sourced from frozen season precipitation (Sep-May)</t>
+  </si>
+  <si>
+    <t>Fraction of inflow sourced from thawed season precipitation (Jun-Aug)</t>
   </si>
 </sst>
 </file>
@@ -1862,9 +1940,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B530EF6B-E36B-423E-BD66-B3B8E955CC64}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1934,136 +2014,262 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>130</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B33" t="s">
         <v>148</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C33" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +2281,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E4C509-EBF9-4047-92EB-D9CFBCE612D9}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
